--- a/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 8,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 3,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 2,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 4,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,85; -1,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; 9,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 5,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,33; -0,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; 3,6</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,78%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 88,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,38; 36,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,56; 22,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,05; 26,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,2; -8,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,26; 57,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,59; 37,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,64; -0,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,82; 26,64</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 8,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 6,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 6,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; 0,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,57; 3,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 6,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 2,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,22; 2,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,38%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,71; 73,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,33; 55,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,29; 28,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; 30,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,43; 1,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,88; 19,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 40,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,21; 15,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,55; 15,27</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 6,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,1; 1,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,62; 2,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,12; 13,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 2,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; -0,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 8,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 0,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,18; -0,72</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,14; 32,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,87; 5,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,17; 11,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,13; 58,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,36; 10,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,5; -2,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,29; 40,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,25; 2,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,47; -3,26</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 10,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,31; 11,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 8,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,77; 4,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,64; 0,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 9,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 6,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 3,39</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,26%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 70,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,01; 78,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,1; 56,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 34,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,93; 17,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,75; 3,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,06; 42,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 30,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,85; 15,58</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 8,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 2,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,87; 4,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 13,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 7,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 4,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 8,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 2,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 2,74</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,67%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,49; 37,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,56; 10,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,29; 20,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 44,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,23; 25,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,47; 14,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 33,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; 10,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,5; 10,43</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,11; 6,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,79; 0,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 5,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,17; 15,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 10,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,83; 29,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 10,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 4,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 21,17</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,51%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,66%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,67; 25,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,38; 3,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,86; 23,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,33; 53,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 36,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,9; 102,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,87; 39,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 17,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,93; 74,4</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 5,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 2,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,08; 8,32</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 2,49</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 9,8</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 6,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 1,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 6,32</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,8; 32,57</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 12,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 18,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,74; 32,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; 9,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 37,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,41; 29,36</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 8,2</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 27,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-5,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 8,51</t>
+          <t>-2,92; 8,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,64</t>
+          <t>-3,94; 8,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 2,2</t>
+          <t>-13,22; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 4,3</t>
+          <t>-3,59; 9,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -1,73</t>
+          <t>-5,63; 6,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 9,71</t>
+          <t>-14,29; 3,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,13</t>
+          <t>-1,4; 7,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; -0,14</t>
+          <t>-2,96; 5,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,6</t>
+          <t>-12,24; 0,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,94%</t>
+          <t>-18,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-31,72%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>-13,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,78%</t>
+          <t>-15,84%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 88,38</t>
+          <t>-8,78; 31,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 36,3</t>
+          <t>-12,07; 32,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 22,66</t>
+          <t>-40,88; 11,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 26,5</t>
+          <t>-8,03; 24,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,2; -8,34</t>
+          <t>-12,54; 17,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 57,43</t>
+          <t>-32,31; 8,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 37,59</t>
+          <t>-3,61; 22,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,64; -0,94</t>
+          <t>-7,84; 16,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 26,64</t>
+          <t>-31,93; 1,13</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-3,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,46</t>
+          <t>2,55; 12,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,15</t>
+          <t>5,43; 16,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,4</t>
+          <t>-8,57; 4,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,04</t>
+          <t>-1,55; 10,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,15</t>
+          <t>-5,73; 5,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 3,77</t>
+          <t>-13,71; 0,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,36</t>
+          <t>2,7; 10,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 2,39</t>
+          <t>1,84; 9,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,42</t>
+          <t>-8,66; 1,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,74%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-15,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,85%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,38%</t>
+          <t>-9,33%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 73,62</t>
+          <t>6,96; 41,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 55,21</t>
+          <t>15,17; 51,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,29; 28,83</t>
+          <t>-23,96; 13,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 30,74</t>
+          <t>-3,15; 23,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 1,04</t>
+          <t>-11,55; 12,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 19,02</t>
+          <t>-27,94; 1,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 40,33</t>
+          <t>6,53; 27,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 15,52</t>
+          <t>4,68; 25,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 15,27</t>
+          <t>-20,92; 3,05</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-9,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>-16,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-12,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,02</t>
+          <t>-0,53; 10,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,1</t>
+          <t>-1,75; 9,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 2,11</t>
+          <t>-14,51; -3,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 13,04</t>
+          <t>-6,13; 4,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 2,41</t>
+          <t>-14,73; -3,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -0,54</t>
+          <t>-21,41; -11,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,69</t>
+          <t>-2,56; 5,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 0,46</t>
+          <t>-7,04; 1,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -0,72</t>
+          <t>-16,81; -9,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,32%</t>
+          <t>-20,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,12%</t>
+          <t>-16,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>-28,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,23%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-25,32%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 32,6</t>
+          <t>-1,05; 25,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 5,39</t>
+          <t>-3,87; 24,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 11,89</t>
+          <t>-32,25; -8,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,13; 58,49</t>
+          <t>-10,24; 8,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 10,72</t>
+          <t>-24,59; -6,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,5; -2,38</t>
+          <t>-35,8; -20,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 40,12</t>
+          <t>-4,81; 11,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 2,36</t>
+          <t>-13,33; 2,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,47; -3,26</t>
+          <t>-32,14; -18,78</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-11,54</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-8,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 10,29</t>
+          <t>-0,74; 12,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 11,34</t>
+          <t>0,86; 13,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 8,42</t>
+          <t>-15,56; 0,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,96</t>
+          <t>-8,12; 3,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 4,83</t>
+          <t>-7,78; 3,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 0,94</t>
+          <t>-17,39; -6,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 9,13</t>
+          <t>-2,82; 6,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 6,71</t>
+          <t>-1,81; 7,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,39</t>
+          <t>-14,21; -3,97</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>-12,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-16,21%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,67; 70,91</t>
+          <t>-1,97; 29,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,01; 78,39</t>
+          <t>2,19; 33,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 56,85</t>
+          <t>-33,46; 0,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 34,94</t>
+          <t>-13,05; 6,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 17,93</t>
+          <t>-12,49; 6,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 3,53</t>
+          <t>-28,05; -11,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,06; 42,04</t>
+          <t>-5,06; 12,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 30,49</t>
+          <t>-3,4; 14,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 15,58</t>
+          <t>-26,54; -8,22</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-6,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 8,04</t>
+          <t>-10,85; 3,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 2,42</t>
+          <t>-14,62; -0,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,62</t>
+          <t>-14,58; -1,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 13,17</t>
+          <t>0,86; 14,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 7,48</t>
+          <t>-5,87; 7,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 4,13</t>
+          <t>-9,1; 2,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 8,86</t>
+          <t>-2,48; 7,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 2,75</t>
+          <t>-8,23; 1,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 2,74</t>
+          <t>-10,84; -1,89</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-14,31%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>-15,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-6,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-10,9%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 37,91</t>
+          <t>-18,68; 6,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 10,83</t>
+          <t>-25,18; -0,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 20,49</t>
+          <t>-25,06; -3,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 44,48</t>
+          <t>1,21; 25,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 25,15</t>
+          <t>-9,41; 13,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 14,26</t>
+          <t>-14,62; 4,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,17; 33,77</t>
+          <t>-4,21; 13,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 10,2</t>
+          <t>-13,81; 2,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 10,43</t>
+          <t>-18,11; -3,44</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>4,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,26</t>
+          <t>-9,49; 3,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,66</t>
+          <t>-11,39; 0,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,71</t>
+          <t>-9,36; 1,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,17; 15,3</t>
+          <t>6,58; 16,81</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,53; 10,67</t>
+          <t>-0,54; 10,11</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,83; 29,86</t>
+          <t>3,58; 22,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,65</t>
+          <t>1,05; 9,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,86</t>
+          <t>-3,55; 4,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,13; 21,17</t>
+          <t>-0,43; 14,19</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>-5,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>-8,61%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>-7,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 25,99</t>
+          <t>-16,62; 6,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 3,27</t>
+          <t>-19,53; 1,75</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 23,64</t>
+          <t>-16,2; 2,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,33; 53,58</t>
+          <t>11,76; 33,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,44; 36,92</t>
+          <t>-1,02; 19,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,9; 102,41</t>
+          <t>6,34; 44,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,87; 39,04</t>
+          <t>1,86; 18,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 17,81</t>
+          <t>-6,35; 8,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>9,93; 74,4</t>
+          <t>-0,82; 27,11</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-2,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,78</t>
+          <t>1,01; 6,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,21</t>
+          <t>1,38; 6,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,33</t>
+          <t>-6,11; -0,5</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,32</t>
+          <t>2,33; 7,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,49</t>
+          <t>-2,84; 2,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,8</t>
+          <t>-5,7; 2,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,42</t>
+          <t>2,18; 5,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,82</t>
+          <t>-0,03; 3,53</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,32</t>
+          <t>-4,93; 0,01</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>-6,02%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>8,8; 32,57</t>
+          <t>2,27; 14,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 12,4</t>
+          <t>3,12; 15,48</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 18,57</t>
+          <t>-13,95; -1,19</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,74; 32,52</t>
+          <t>4,37; 13,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 9,79</t>
+          <t>-5,21; 3,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,16; 37,29</t>
+          <t>-10,56; 4,4</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>14,41; 29,36</t>
+          <t>4,82; 12,06</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,2</t>
+          <t>-0,02; 7,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2,95; 27,98</t>
+          <t>-10,07; 0,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-6,5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6,12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-3,76</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>-5,81</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-5,63</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-5,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 8,67</t>
+          <t>-2,71; 8,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 8,75</t>
+          <t>-5,21; 7,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 3,6</t>
+          <t>-14,57; 2,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 9,24</t>
+          <t>-0,34; 13,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,93</t>
+          <t>-5,17; 7,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 3,32</t>
+          <t>-11,93; 5,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 7,53</t>
+          <t>0,12; 9,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,82</t>
+          <t>-3,44; 5,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 0,32</t>
+          <t>-12,56; 0,62</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,81%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-15,84%</t>
+          <t>-15,51%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 31,14</t>
+          <t>-7,83; 31,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 32,15</t>
+          <t>-14,64; 27,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 11,92</t>
+          <t>-42,08; 10,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 24,0</t>
+          <t>-0,73; 32,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 17,67</t>
+          <t>-11,61; 18,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 8,35</t>
+          <t>-26,47; 12,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 22,45</t>
+          <t>0,33; 26,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 16,84</t>
+          <t>-8,83; 15,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 1,13</t>
+          <t>-32,27; 1,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 12,83</t>
+          <t>4,74; 15,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,57</t>
+          <t>5,92; 16,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 4,29</t>
+          <t>-7,41; 5,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 10,29</t>
+          <t>0,71; 12,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 5,54</t>
+          <t>-5,23; 6,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 0,45</t>
+          <t>-11,09; 19,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,26</t>
+          <t>4,93; 12,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 9,48</t>
+          <t>2,75; 10,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 1,3</t>
+          <t>-6,04; 13,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,27%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>1,22%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 41,12</t>
+          <t>12,67; 46,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 51,66</t>
+          <t>15,08; 52,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 13,3</t>
+          <t>-20,57; 17,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 23,88</t>
+          <t>1,37; 27,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 12,98</t>
+          <t>-10,05; 14,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 1,57</t>
+          <t>-22,44; 40,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 27,03</t>
+          <t>11,42; 31,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 25,1</t>
+          <t>6,45; 26,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 3,05</t>
+          <t>-14,58; 35,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,72</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-16,43</t>
+          <t>-14,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,78</t>
+          <t>-11,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 10,13</t>
+          <t>1,9; 12,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 9,6</t>
+          <t>-1,32; 9,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -3,44</t>
+          <t>-13,27; -2,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,5</t>
+          <t>0,31; 10,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,73; -3,65</t>
+          <t>-14,21; -3,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,41; -11,22</t>
+          <t>-19,26; -9,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 5,69</t>
+          <t>2,26; 10,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 1,08</t>
+          <t>-6,36; 1,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,81; -9,21</t>
+          <t>-15,04; -7,27</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,31%</t>
+          <t>-17,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,19%</t>
+          <t>-14,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,62%</t>
+          <t>-24,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-25,32%</t>
+          <t>-21,65%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 25,74</t>
+          <t>4,12; 31,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 24,13</t>
+          <t>-2,78; 24,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -8,95</t>
+          <t>-28,97; -5,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 8,42</t>
+          <t>0,46; 19,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -6,66</t>
+          <t>-23,1; -5,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,8; -20,45</t>
+          <t>-31,76; -16,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 11,68</t>
+          <t>4,32; 20,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 2,31</t>
+          <t>-11,96; 3,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,14; -18,78</t>
+          <t>-28,28; -14,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-13,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,54</t>
+          <t>-12,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-13,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 12,1</t>
+          <t>2,27; 15,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 13,31</t>
+          <t>1,39; 13,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 0,58</t>
+          <t>-32,76; 1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 3,8</t>
+          <t>-4,22; 6,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,51</t>
+          <t>-7,73; 3,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,39; -6,2</t>
+          <t>-22,63; -7,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 6,32</t>
+          <t>0,34; 9,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,08</t>
+          <t>-1,47; 7,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -3,97</t>
+          <t>-29,97; -5,05</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>-29,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>-3,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-16,21%</t>
+          <t>-25,8%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 29,27</t>
+          <t>4,9; 36,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,19; 33,32</t>
+          <t>2,79; 33,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 0,99</t>
+          <t>-69,09; 2,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 6,52</t>
+          <t>-6,67; 11,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 6,23</t>
+          <t>-11,71; 5,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,05; -11,08</t>
+          <t>-35,32; -12,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 12,73</t>
+          <t>0,6; 18,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 14,31</t>
+          <t>-2,64; 14,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,54; -8,22</t>
+          <t>-55,2; -9,54</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,63</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-4,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 3,54</t>
+          <t>-8,46; 5,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -0,12</t>
+          <t>-11,19; 3,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -1,91</t>
+          <t>-12,98; -0,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 14,09</t>
+          <t>3,05; 16,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 7,38</t>
+          <t>-4,18; 8,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 2,67</t>
+          <t>-7,43; 4,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 7,29</t>
+          <t>-0,38; 9,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 1,42</t>
+          <t>-5,96; 3,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -1,89</t>
+          <t>-9,05; -0,31</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-15,76%</t>
+          <t>-11,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,26%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>-7,69%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 6,89</t>
+          <t>-14,36; 10,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,18; -0,46</t>
+          <t>-18,78; 6,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,06; -3,6</t>
+          <t>-21,38; -0,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,21; 25,81</t>
+          <t>4,68; 29,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 13,38</t>
+          <t>-6,55; 16,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 4,79</t>
+          <t>-11,8; 7,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 13,37</t>
+          <t>-0,62; 17,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 2,57</t>
+          <t>-9,84; 6,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,11; -3,44</t>
+          <t>-14,96; -0,58</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>6,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,33</t>
+          <t>-11,66; 4,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 0,91</t>
+          <t>-11,44; 4,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 1,4</t>
+          <t>-12,09; 1,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,58; 16,81</t>
+          <t>0,18; 15,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 10,11</t>
+          <t>-5,93; 8,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,58; 22,53</t>
+          <t>-3,69; 34,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,37</t>
+          <t>-3,32; 7,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 4,56</t>
+          <t>-6,16; 4,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 14,19</t>
+          <t>-5,46; 28,23</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>-6,48%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,61%</t>
+          <t>-6,31%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>-9,48%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>11,62%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 6,43</t>
+          <t>-20,5; 8,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 1,75</t>
+          <t>-19,71; 9,01</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 2,85</t>
+          <t>-20,57; 3,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,76; 33,44</t>
+          <t>0,63; 29,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 19,65</t>
+          <t>-9,78; 16,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>6,34; 44,57</t>
+          <t>-6,47; 64,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,86; 18,19</t>
+          <t>-5,37; 14,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 8,67</t>
+          <t>-10,73; 7,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 27,11</t>
+          <t>-9,65; 52,38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>8,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,22</t>
+          <t>-7,03; 12,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,37</t>
+          <t>-10,18; 7,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,11; -0,5</t>
+          <t>-7,85; 8,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,11</t>
+          <t>10,6; 24,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,05</t>
+          <t>1,5; 17,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 2,3</t>
+          <t>6,53; 20,17</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,66</t>
+          <t>5,98; 17,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,53</t>
+          <t>0,06; 12,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,01</t>
+          <t>3,11; 13,28</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-7,53%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>15,78%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2,27; 14,94</t>
+          <t>-11,73; 25,41</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3,12; 15,48</t>
+          <t>-16,87; 15,01</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -1,19</t>
+          <t>-13,31; 17,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,37; 13,66</t>
+          <t>19,08; 54,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 3,96</t>
+          <t>3,19; 37,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 4,4</t>
+          <t>11,5; 45,4</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,06</t>
+          <t>10,7; 36,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 7,48</t>
+          <t>0,1; 24,6</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 0,01</t>
+          <t>5,64; 27,53</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-4,58</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>6,77</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 8,39</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 7,36</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; -0,57</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 10,23</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 2,89</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 8,54</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 8,34</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 4,42</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 2,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-10,6%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-0,7%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-4,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 19,86</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 17,51</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-33,36; -1,36</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 19,25</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 5,5</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 15,89</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 17,42</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 9,22</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-14,1; 4,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 8,92</t>
+          <t>-2,71; 8,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 7,95</t>
+          <t>-5,21; 7,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 2,46</t>
+          <t>-14,51; 2,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 13,27</t>
+          <t>-0,69; 12,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 7,2</t>
+          <t>-4,73; 7,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 5,1</t>
+          <t>-12,72; 4,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 9,12</t>
+          <t>0,16; 9,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,54</t>
+          <t>-3,78; 5,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 0,62</t>
+          <t>-11,63; 0,79</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 31,06</t>
+          <t>-8,0; 30,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 27,39</t>
+          <t>-14,79; 25,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 10,03</t>
+          <t>-42,58; 10,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 32,43</t>
+          <t>-1,74; 30,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 18,2</t>
+          <t>-10,33; 19,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 12,23</t>
+          <t>-28,66; 12,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 26,06</t>
+          <t>0,06; 25,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 15,68</t>
+          <t>-9,42; 15,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 1,9</t>
+          <t>-30,03; 2,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 15,02</t>
+          <t>4,11; 14,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 16,95</t>
+          <t>6,03; 16,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 5,78</t>
+          <t>-7,41; 6,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 12,8</t>
+          <t>1,47; 12,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 6,47</t>
+          <t>-5,52; 6,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 19,27</t>
+          <t>-11,29; 19,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 12,33</t>
+          <t>5,05; 13,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,53</t>
+          <t>2,48; 10,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 13,69</t>
+          <t>-6,31; 14,14</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 46,71</t>
+          <t>10,55; 45,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 52,15</t>
+          <t>16,21; 51,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 17,76</t>
+          <t>-20,78; 19,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 27,24</t>
+          <t>2,98; 28,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 14,37</t>
+          <t>-10,57; 13,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 40,58</t>
+          <t>-23,0; 40,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 31,33</t>
+          <t>11,87; 33,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 26,86</t>
+          <t>6,16; 26,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 35,31</t>
+          <t>-15,07; 35,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 12,94</t>
+          <t>1,24; 12,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,98</t>
+          <t>-1,19; 10,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -2,17</t>
+          <t>-13,08; -1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,64</t>
+          <t>0,02; 10,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -3,3</t>
+          <t>-14,18; -2,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,26; -9,03</t>
+          <t>-18,8; -8,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 10,3</t>
+          <t>2,24; 10,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,5</t>
+          <t>-6,6; 1,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -7,27</t>
+          <t>-15,16; -7,12</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,12; 31,75</t>
+          <t>2,62; 31,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 24,52</t>
+          <t>-2,33; 24,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,97; -5,03</t>
+          <t>-28,33; -3,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 19,19</t>
+          <t>-0,01; 19,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,1; -5,8</t>
+          <t>-23,5; -5,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,76; -16,08</t>
+          <t>-31,21; -16,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,32; 20,84</t>
+          <t>4,17; 20,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 3,08</t>
+          <t>-12,26; 3,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,28; -14,71</t>
+          <t>-28,39; -14,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 15,15</t>
+          <t>1,4; 14,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 13,61</t>
+          <t>2,38; 14,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 1,13</t>
+          <t>-32,48; 1,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 6,84</t>
+          <t>-3,67; 7,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 3,51</t>
+          <t>-7,95; 3,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,63; -7,28</t>
+          <t>-20,69; -6,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,56</t>
+          <t>0,85; 9,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 7,28</t>
+          <t>-1,76; 6,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-29,97; -5,05</t>
+          <t>-31,2; -5,54</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,9; 36,54</t>
+          <t>2,97; 33,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 33,16</t>
+          <t>4,8; 34,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,09; 2,46</t>
+          <t>-69,56; 2,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 11,66</t>
+          <t>-5,8; 12,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 5,85</t>
+          <t>-12,22; 6,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,32; -12,28</t>
+          <t>-32,77; -11,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,6; 18,47</t>
+          <t>1,62; 17,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 14,14</t>
+          <t>-3,11; 13,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,2; -9,54</t>
+          <t>-58,34; -10,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,32</t>
+          <t>-7,69; 6,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 3,4</t>
+          <t>-11,15; 2,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -0,4</t>
+          <t>-13,52; -0,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,05; 16,23</t>
+          <t>2,68; 16,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 8,95</t>
+          <t>-3,61; 9,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 4,25</t>
+          <t>-7,92; 3,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 9,33</t>
+          <t>-0,2; 9,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 3,8</t>
+          <t>-5,53; 4,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -0,31</t>
+          <t>-8,38; -0,0</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 10,03</t>
+          <t>-12,66; 13,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 6,67</t>
+          <t>-18,93; 4,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -0,67</t>
+          <t>-23,17; -1,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,68; 29,76</t>
+          <t>4,8; 31,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 16,29</t>
+          <t>-5,83; 17,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 7,56</t>
+          <t>-12,53; 6,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 17,18</t>
+          <t>-0,26; 16,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 6,89</t>
+          <t>-9,1; 7,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -0,58</t>
+          <t>-14,01; 0,32</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 4,56</t>
+          <t>-12,22; 4,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 4,4</t>
+          <t>-11,12; 4,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 1,84</t>
+          <t>-12,73; 1,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,18; 15,51</t>
+          <t>0,52; 14,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 8,61</t>
+          <t>-5,04; 9,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 34,86</t>
+          <t>-4,46; 30,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 7,75</t>
+          <t>-2,72; 8,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 4,0</t>
+          <t>-5,91; 4,87</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 28,23</t>
+          <t>-4,75; 24,92</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 8,97</t>
+          <t>-20,91; 9,71</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 9,01</t>
+          <t>-19,56; 8,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 3,78</t>
+          <t>-21,29; 2,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,63; 29,39</t>
+          <t>0,87; 27,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 16,14</t>
+          <t>-8,18; 18,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 64,18</t>
+          <t>-7,42; 58,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 14,51</t>
+          <t>-4,58; 15,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 7,49</t>
+          <t>-10,26; 9,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 52,38</t>
+          <t>-8,47; 48,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 12,42</t>
+          <t>-6,86; 12,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 7,52</t>
+          <t>-9,11; 8,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 8,52</t>
+          <t>-7,99; 8,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,6; 24,93</t>
+          <t>10,55; 25,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,5; 17,09</t>
+          <t>1,84; 18,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,53; 20,17</t>
+          <t>6,48; 19,58</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,98; 17,86</t>
+          <t>5,51; 17,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,06</t>
+          <t>-0,96; 12,02</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,11; 13,28</t>
+          <t>3,05; 13,3</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 25,41</t>
+          <t>-11,28; 24,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 15,01</t>
+          <t>-15,33; 17,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 17,09</t>
+          <t>-13,28; 17,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>19,08; 54,66</t>
+          <t>19,6; 55,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3,19; 37,79</t>
+          <t>3,39; 38,35</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>11,5; 45,4</t>
+          <t>11,71; 43,27</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,7; 36,66</t>
+          <t>10,16; 36,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,1; 24,6</t>
+          <t>-1,42; 25,14</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>5,64; 27,53</t>
+          <t>5,54; 27,24</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,39</t>
+          <t>3,27; 8,15</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,36</t>
+          <t>2,6; 7,57</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -0,57</t>
+          <t>-15,06; -0,96</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,23</t>
+          <t>5,17; 9,96</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,89</t>
+          <t>-1,89; 2,95</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 8,54</t>
+          <t>-4,44; 8,24</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,34</t>
+          <t>5,04; 8,56</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,42</t>
+          <t>1,01; 4,73</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 2,14</t>
+          <t>-7,19; 2,0</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>7,34; 19,86</t>
+          <t>7,29; 19,58</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5,5; 17,51</t>
+          <t>5,75; 17,82</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-33,36; -1,36</t>
+          <t>-33,67; -2,26</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9,96; 19,25</t>
+          <t>9,41; 18,95</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,5</t>
+          <t>-3,37; 5,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 15,89</t>
+          <t>-8,09; 15,27</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,42</t>
+          <t>10,18; 17,89</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,22</t>
+          <t>2,11; 9,93</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 4,39</t>
+          <t>-14,56; 4,23</t>
         </is>
       </c>
     </row>
